--- a/p/pe文件结构/程序加载各种表.xlsx
+++ b/p/pe文件结构/程序加载各种表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>程序加载</t>
   </si>
@@ -47,43 +47,49 @@
     <t>Size</t>
   </si>
   <si>
-    <t>ImageBase</t>
+    <t>ImageBase:0x400000</t>
   </si>
   <si>
     <t>.exe</t>
   </si>
   <si>
-    <t>call MessageBox-&gt;0x7701040a</t>
-  </si>
-  <si>
-    <t>call fun1-&gt;0x451234</t>
-  </si>
-  <si>
-    <t>IAT表</t>
-  </si>
-  <si>
-    <t>导出表</t>
+    <t>delta = 0x50000</t>
   </si>
   <si>
     <t>ImageBase=0x400000</t>
   </si>
   <si>
+    <t>0x451023</t>
+  </si>
+  <si>
+    <t>0x403000-&gt;+50000</t>
+  </si>
+  <si>
+    <t>exe重定位表</t>
+  </si>
+  <si>
+    <t>VirtualAddress=0</t>
+  </si>
+  <si>
+    <t>dll3导出表</t>
+  </si>
+  <si>
+    <t>SizeOfBlock</t>
+  </si>
+  <si>
     <t>Base（x）</t>
   </si>
   <si>
-    <t>重定位表</t>
-  </si>
-  <si>
-    <t>VirtualAddress=0</t>
+    <t>0011+0x1023</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>SizeOfBlock</t>
-  </si>
-  <si>
-    <t>0x400000</t>
+    <t>0011+0x3000</t>
+  </si>
+  <si>
+    <t>0x600000</t>
   </si>
   <si>
     <t>.dll1</t>
@@ -92,61 +98,151 @@
     <t>AddressOfFunctions;</t>
   </si>
   <si>
-    <t>0011+0x3000</t>
-  </si>
-  <si>
-    <t>0x403000</t>
-  </si>
-  <si>
     <t>AddressOfNames;</t>
   </si>
   <si>
     <t>AddressOfNameOrdinals;</t>
   </si>
   <si>
-    <t>修改重定位表</t>
-  </si>
-  <si>
-    <t>0x450000</t>
+    <t>0x650000</t>
   </si>
   <si>
     <t>.dll2</t>
   </si>
   <si>
+    <t>0x653000</t>
+  </si>
+  <si>
+    <t>0x601234-&gt;+50000</t>
+  </si>
+  <si>
+    <t>均为RVA</t>
+  </si>
+  <si>
+    <t>0x901234</t>
+  </si>
+  <si>
+    <t>x:无名函数</t>
+  </si>
+  <si>
+    <t>RVA-&gt;fun1</t>
+  </si>
+  <si>
+    <t>call [fun1]-&gt;0x403000-&gt;0x453000</t>
+  </si>
+  <si>
+    <t>x+1:fun1(0x002300)</t>
+  </si>
+  <si>
+    <t>RVA-&gt;fun2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>jmp dword ptr 0x902300</t>
+  </si>
+  <si>
+    <t>0x900000</t>
+  </si>
+  <si>
+    <t>.dll3</t>
+  </si>
+  <si>
+    <t>x+a:fun2函数地址</t>
+  </si>
+  <si>
+    <t>RVA-&gt;fun3</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0x902300</t>
+  </si>
+  <si>
+    <t>fun1函数入口</t>
+  </si>
+  <si>
+    <t>x+b:fun3函数地址</t>
+  </si>
+  <si>
+    <t>数据目录表第二项</t>
+  </si>
+  <si>
+    <t>80000010h(函数序号)</t>
+  </si>
+  <si>
+    <t>AddressOfData</t>
+  </si>
+  <si>
+    <t>02fa</t>
+  </si>
+  <si>
+    <t>fun1</t>
+  </si>
+  <si>
+    <t>0（结束）</t>
+  </si>
+  <si>
+    <t>0f11</t>
+  </si>
+  <si>
+    <t>fun2</t>
+  </si>
+  <si>
+    <t>exe导入表</t>
+  </si>
+  <si>
+    <t>OriginalFirstThunk</t>
+  </si>
+  <si>
+    <t>002b</t>
+  </si>
+  <si>
+    <t>fun3</t>
+  </si>
+  <si>
+    <t>！！！</t>
+  </si>
+  <si>
+    <t>首先目标程序dll可能要重定位，将要导入函数的真实地址写入主程序的IAT对应位置</t>
+  </si>
+  <si>
+    <t>加载前</t>
+  </si>
+  <si>
+    <t>加载后</t>
+  </si>
+  <si>
+    <t>无名函数入口地址</t>
+  </si>
+  <si>
+    <t>若主程序被重定位到0x450000，指向IAT项的原指针是0x403000，但IAT表的地址已变化</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>0x453000</t>
   </si>
   <si>
-    <t>0x1234-&gt;+450000</t>
-  </si>
-  <si>
-    <t>均为RVA</t>
-  </si>
-  <si>
-    <t>x:无名函数</t>
-  </si>
-  <si>
-    <t>RVA-&gt;fun1</t>
-  </si>
-  <si>
-    <t>x+1:fun1函数地址</t>
-  </si>
-  <si>
-    <t>RVA-&gt;fun2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>x+a:fun2函数地址</t>
-  </si>
-  <si>
-    <t>RVA-&gt;fun3</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>x+b:fun3函数地址</t>
+    <t>fun1(0x902300)</t>
+  </si>
+  <si>
+    <t>而原本0x401023中存储着值0x403000，重定位表中存储着RVA（0x001023）</t>
+  </si>
+  <si>
+    <t>FirstThunk</t>
+  </si>
+  <si>
+    <t>加载器加载在0x450000+0x1023中的值修改为0x403000+0x50000=0x453000</t>
+  </si>
+  <si>
+    <t>调用修正后的指令call [0x453000]，它会去0x453000（IAT中函数的地址）读取内容</t>
+  </si>
+  <si>
+    <t>中间有个jmp dword ptr [0x902300]，最终会跳转到0x902300，即fun1函数入口点</t>
   </si>
 </sst>
 </file>
@@ -312,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +447,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,12 +507,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,6 +519,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBA2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,12 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,12 +609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,12 +675,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,12 +688,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +842,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,16 +866,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -764,138 +884,168 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1424,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="三线式标题行镶边行表格样式_5ef0b6" count="9" xr9:uid="{381684F6-93BE-493C-816E-457A8C7CAFA1}">
+    <tableStyle name="三线式标题行镶边行表格样式_5ef0b6" count="9" xr9:uid="{0F54AA74-0A19-4420-8049-1D438ED02B24}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1298,6 +1448,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="16"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00BBA2E9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1318,7 +1473,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>309880</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1329,7 +1484,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1300480" y="424180"/>
-          <a:ext cx="952500" cy="952500"/>
+          <a:ext cx="952500" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1340,53 +1495,6 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>119380</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>648335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2062480" y="1819910"/>
-          <a:ext cx="3766820" cy="604520"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
@@ -1736,26 +1844,622 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476885</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
       <xdr:row>5</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3477260" y="986155"/>
+          <a:ext cx="2414270" cy="1757045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>629285</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1924685" y="3429000"/>
+          <a:ext cx="666115" cy="919480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>490855</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4363085" y="1024255"/>
-          <a:ext cx="1957070" cy="1433830"/>
+        <a:xfrm flipV="1">
+          <a:off x="1443355" y="4624705"/>
+          <a:ext cx="1152525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362585</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>633730</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3601085" y="3715385"/>
+          <a:ext cx="918845" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3615055" y="3891280"/>
+          <a:ext cx="895350" cy="300355"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594735" y="4061460"/>
+          <a:ext cx="918845" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362585</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3601085" y="4039235"/>
+          <a:ext cx="909320" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3599180" y="4385310"/>
+          <a:ext cx="909320" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3596005" y="4200525"/>
+          <a:ext cx="909320" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4134485" y="5072380"/>
+          <a:ext cx="838200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+            </a:gsLst>
+          </a:gradFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>643255</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2119630" y="862330"/>
+          <a:ext cx="3705225" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>553085</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086985" y="2886710"/>
+          <a:ext cx="90170" cy="1913890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>290830</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="652780" y="3724910"/>
+          <a:ext cx="933450" cy="561340"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2034,10 +2738,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:S27"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2054,8 +2758,8 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="O2" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2769,8 @@
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="P3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2077,11 +2781,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" t="s">
         <v>7</v>
       </c>
@@ -2090,293 +2794,508 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="6:11">
-      <c r="F5" t="s">
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="6:11">
-      <c r="F6" t="s">
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="8:16">
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="7" spans="2:16">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="N7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="O8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="O8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="O9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="8"/>
+    <row r="9" spans="3:16">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="O9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="3:16">
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10">
-        <v>16</v>
-      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="O11" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="O11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="O12" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="O12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="3:16">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="G14" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="I15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="17"/>
+      <c r="M15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="P16" s="13" t="s">
+      <c r="N16" s="18"/>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="S16" s="15">
+      <c r="Q16" s="19"/>
+      <c r="S16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="P17" s="13" t="s">
+      <c r="M17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="S17" s="16" t="s">
+      <c r="N17" s="18"/>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>35</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="S17" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="M18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="S18" s="16" t="s">
-        <v>16</v>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="M18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="P18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="S18" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="P19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="16" t="s">
+    <row r="19" spans="9:19">
+      <c r="I19" t="s">
         <v>38</v>
       </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="3:19">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="S20" s="16"/>
+    <row r="20" spans="9:19">
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="3:19">
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="S21" s="16"/>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="3:19">
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="S22" s="16"/>
+    <row r="22" spans="2:19">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="10:19">
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="S23" s="16"/>
+    <row r="23" spans="2:14">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="10:14">
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+    <row r="24" spans="5:14">
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="H24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="10:14">
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+    <row r="25" spans="5:9">
+      <c r="E25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="H25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+    <row r="27" spans="2:19">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="H29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="I30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="5:19">
+      <c r="E31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="I31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="5:19">
+      <c r="E32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="I32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O26:P26"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
